--- a/mosip_master/xlsx/machine_master_h.xlsx
+++ b/mosip_master/xlsx/machine_master_h.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6C1544-8844-453E-8123-950AD63F0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7FD9E2-7BBA-4282-9D58-6E07CAFB048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
   <si>
     <t>lang_code</t>
   </si>
@@ -295,6 +295,108 @@
   </si>
   <si>
     <t>C1:70:93:C4:51:00:ED:EE:F3:84:AC:B2:90:A5:85:EE:E1:12:E9:F4:9A:9C:CD:0B:B9:5C:9C:98:FD:97:4B:D3</t>
+  </si>
+  <si>
+    <t>DESKTOP-8P537AU</t>
+  </si>
+  <si>
+    <t>9C-1F-65-0A-CA-CA</t>
+  </si>
+  <si>
+    <t>192.168.0.413</t>
+  </si>
+  <si>
+    <t>RESIDENT-1</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCOuSiHKLRObWIqIA_E3barO8mWQSG9x9IdXvU_vC-S55_1PYAPxSy5JJFoPQBjZQ_JGboQtDicHVtdfIGlFfXOTh0leIjgi9UO28fwY8Uz91PPjw4ZX-K5UP_88CRJCMYU7alAQ0aCQBUhIL0UhMNxBP5fk_nSccUz6T23KmrfmiL21oG1EUzaXEwTDWPLmKafHjXHYXAmeX5LTOCE49SsP4e7ohNbD5ZD1JoW_XhAqIkgNtmumNBPpXMQzXbt7tIASrGSkh7RPI77FfuaGbd7ZRvpyvSvFp9Cpgp0adsUPblWwC97chPQsnSQFmqxAEX-hZYR1ILOCfRcXopDT94R</t>
+  </si>
+  <si>
+    <t>42:65:A1:F9:0E:5C:EB:76:36:6E:81:A1:FC:9E:92:10:FC:6F:99:C3:36:34:DF:17:8F:24:21:16:D3:4B:5D:F7</t>
+  </si>
+  <si>
+    <t>Techno-359</t>
+  </si>
+  <si>
+    <t>23-45-FG-DS-ER-56-78-JH</t>
+  </si>
+  <si>
+    <t>HID67834632HJSD</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>22:31:fe:6b:06:89:1c:bb:c3:b6:94:2a:14:99:f7:44:31:af:3a:04:96:66:39:74:69:15:57:05:4b:10:e4:a6</t>
+  </si>
+  <si>
+    <t>REDIETKETEM4E4D</t>
+  </si>
+  <si>
+    <t>00-1C-42-2F-96-C8</t>
+  </si>
+  <si>
+    <t>Parallels-47 65 B6 4A 8E D8 4A 5C 8E 9A A4 03 35 43 FB 3D</t>
+  </si>
+  <si>
+    <t>10.211.55.3</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQChJ62R0A631xU1wILT0rn2ls4KyZ-GYCt3W02Wkw0xxoZsWPEdfjSYcV_M241xm7lhtJ4jEbFt_4UdxSAQYsmLksdX-xZU4oWzhw5IIW1CRgVOsOYlAE5GtglQBM4CWLyORd3DOPepxSgTn1_EkR1AXPliAcFsj317Euo1a_Laq0yFsHnBUPBHG47r-BHzIkNbq_lkSGa3IyJKXN9AsdtBkiFZwAyK1nfKBsBpPkkCfAYrMU5svXZds4uQSLt4lI8IGI1C2gOMjWhiSlTlOde6Kbm46do7FSR6djGyzTMff2rm34lSVTk3u0IpYpQuPW184mVeS1UfY9zWx6IZAVib</t>
+  </si>
+  <si>
+    <t>89:48:66:85:e8:7d:f7:75:9b:27:15:31:8a:cb:38:7d:4e:34:de:89:df:07:ea:08:f8:b9:dc:12:46:98:0b:49</t>
+  </si>
+  <si>
+    <t>LAPTOP-QT7F4S2D</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQDtIeDVDPSPJzCqQNpCmVAFhmxkLYaUskm1UcipG13WM0NUcMI98vZhyzYuSqZaEAGa7DWdGTqlY5TuCl1U5iLL45me17pOsC1LAXbRL3NrCxEmvoHiwkLih2UuRHr_awEaHSNXOS_JlUvUd9TetXodGe5w14BsSeqZFLdUiN7wnftURZj0cj-Wv8QIbS341V8r1da6IngjFCUbB7VazwpmKeOqs9P_emSf3v8FPoSzuMd4nOAV2oIMDb282bACEOy2wov-WPTpR1DtJwmF7hlDjIYcINEn1Me5Qr79mkYE1FzXCMqXN0m_xNuWW_15TOtJt7ye8f0VM9OwrkxZAi2p</t>
+  </si>
+  <si>
+    <t>39:22:0B:84:C6:B7:BD:C0:EA:31:42:80:C4:1A:DD:14:7E:8B:B4:36:CB:86:2C:DF:AF:2C:D0:AF:3F:1F:66:DC</t>
+  </si>
+  <si>
+    <t>DESKTOP-ULGNQ8O</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCyevagDC2TbDkDJ5OHNrDXN_iq4vCqUNWy5AqIVbGNWGVZS240JBVgUA0vBsPO6wmnlXDXqxmIvQt415N-V8HYISSJnIUCdMP1sfEeWPyOLPx4srOpJ1zOgDxCYU0eCcTBWx6OdqK7udIaRMb2qPx1UARSORQvgPUS_Wh3Ki8Hlqp-ob1XeLiBQ-Af3UHywH-zfa5UGOySTp6nyWsM6jH26dEXGHxjpzYaxtVX-E0LjTli-_pfj4SW1xqNhcDsvasYu_LXYkv_SCOXNahZkV2kpIZ8LmwQ2bQS-FEFWVLtr69u9_QWp8VLQw3F7F3GZMTq6HekLSiEkG-bDnQrItHd</t>
+  </si>
+  <si>
+    <t>bf:e2:69:51:b7:be:88:43:24:d9:ac:1a:21:5f:64:94:c8:84:c9:8b:71:1b:cf:ed:fb:b8:f2:b1:c9:a2:c1:3c</t>
+  </si>
+  <si>
+    <t>4d:44:97:f2:13:6a:98:60:69:c0:08:c5:1b:3e:60:b4:e9:15:d6:b3:65:21:db:e8:9d:ed:5c:88:c6:c3:f7:20</t>
+  </si>
+  <si>
+    <t>LAPTOP-FBDLR0TK</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.101</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCsMY6JxZFg_9udWTmwECRBAc6xPdH9kPOoM49STsUc1k5X1c3Yh3ssp43njA-RHtQhNGPzlof-M6TfrB6EYpLAyorONHscfBnFKchPtnSJq8VnY9odmjLXOXyio1vzJko5P1Q7PUcCHKooSQnJ4mK__C9KEcpCYMtxsRbSFQGKGH5eYXubDB30UlX98XZ1oHk5Vsq3_Z6QKBsQwPRtgViIluXkBw6qcvvPYcNig_oYLdoF1AA0Lu5XWcnsHDDma7EIkzKx2TV7XjddVUn8ki9bvNLpiG_5sbDBHQit6mCW-AvrcWIlzN-EoBreohLGLhOSjAA1eLvU07uoJU1JHr_f</t>
+  </si>
+  <si>
+    <t>33:eb:2b:60:1f:2c:6b:f0:d3:26:6d:85:1a:5c:fd:b4:cd:db:dd:dc:05:70:dc:57:67:3a:f3:35:26:f2:41:78</t>
+  </si>
+  <si>
+    <t>DESKTOP-5D3757E</t>
+  </si>
+  <si>
+    <t>00-1C-42-2F-96-32</t>
+  </si>
+  <si>
+    <t>10.211.55.2</t>
+  </si>
+  <si>
+    <t>AAEACwACAHIAIINxl2dEhLP4GpDMjUal1yT9UtduBlILZPKh2hszFGmqABAAFwALCAAAAQABAQCsMY6JxZFg_9udWTmwECRBAc6xPdH9kPOoM49STsUc1k5X1c3Yh3ssp43njA-RHtQhNGPzlof-M6TfrB6EYpLAyorONHscfBnFKchPtnSJq8VnY9odmjLXOXyio1vzJko5P1Q7PUcCHKooSQnJ4mK__C9KEcpCYMtxsRbSFQGKGH5eYXubDB30UlX98XZ1oHk5Vsq3_Z6QKBsQwPRtgViIluXkBw6qcvvPYcNig_oYLdoF1AA0Lu5XWcnsHDDma7EIkzKx2TV7XjddVUn8ki9bvNLpiG_5sbDBHQit6mCW-AvrcWIlzN-EoBreohLGLhOSjAA1eLvU07uoJU1JHr_c</t>
+  </si>
+  <si>
+    <t>ae:86:1a:e5:21:2f:21:37:a0:a4:26:09:bd:06:5b:2f:2a:3d:af:84:6c:b0:2d:b6:fc:aa:14:91:ec:a5:80:f3</t>
   </si>
 </sst>
 </file>
@@ -674,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,6 +1395,307 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>10001</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>10003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>10011</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>10102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>10001</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>10101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>10001</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>10111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>10001</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>10001</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>10001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>10001</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>10002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>12345678</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/machine_master_h.xlsx
+++ b/mosip_master/xlsx/machine_master_h.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7FD9E2-7BBA-4282-9D58-6E07CAFB048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEA522-8D2F-4A35-ADE2-CDFA80B41B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
   <si>
     <t>lang_code</t>
   </si>
@@ -397,13 +397,79 @@
   </si>
   <si>
     <t>ae:86:1a:e5:21:2f:21:37:a0:a4:26:09:bd:06:5b:2f:2a:3d:af:84:6c:b0:2d:b6:fc:aa:14:91:ec:a5:80:f3</t>
+  </si>
+  <si>
+    <t>RESIDENT-2</t>
+  </si>
+  <si>
+    <t>RESIDENT-3</t>
+  </si>
+  <si>
+    <t>RESIDENT-4</t>
+  </si>
+  <si>
+    <t>RESIDENT-5</t>
+  </si>
+  <si>
+    <t>RESIDENT-6</t>
+  </si>
+  <si>
+    <t>RESIDENT-7</t>
+  </si>
+  <si>
+    <t>RESIDENT-8</t>
+  </si>
+  <si>
+    <t>RESIDENT-9</t>
+  </si>
+  <si>
+    <t>RESIDENT-10</t>
+  </si>
+  <si>
+    <t>RESIDENT-11</t>
+  </si>
+  <si>
+    <t>RESIDENT-12</t>
+  </si>
+  <si>
+    <t>RESIDENT-13</t>
+  </si>
+  <si>
+    <t>RESIDENT-14</t>
+  </si>
+  <si>
+    <t>RESIDENT-15</t>
+  </si>
+  <si>
+    <t>RESIDENT-16</t>
+  </si>
+  <si>
+    <t>RESIDENT-17</t>
+  </si>
+  <si>
+    <t>RESIDENT-18</t>
+  </si>
+  <si>
+    <t>RESIDENT-19</t>
+  </si>
+  <si>
+    <t>RESIDENT-20</t>
+  </si>
+  <si>
+    <t>RESIDENT-21</t>
+  </si>
+  <si>
+    <t>RESIDENT-22</t>
+  </si>
+  <si>
+    <t>RESIDENT-23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -415,6 +481,12 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -778,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,8 +916,8 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>1001</v>
+      <c r="G2" t="s">
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -882,8 +954,8 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>1001</v>
+      <c r="G3" t="s">
+        <v>124</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -920,8 +992,8 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4">
-        <v>1001</v>
+      <c r="G4" t="s">
+        <v>125</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -958,8 +1030,8 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5">
-        <v>1001</v>
+      <c r="G5" t="s">
+        <v>126</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -996,8 +1068,8 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6">
-        <v>1001</v>
+      <c r="G6" t="s">
+        <v>127</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -1034,8 +1106,8 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G7">
-        <v>1001</v>
+      <c r="G7" t="s">
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1072,8 +1144,8 @@
       <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G8">
-        <v>1001</v>
+      <c r="G8" t="s">
+        <v>129</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -1110,8 +1182,8 @@
       <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="G9">
-        <v>1001</v>
+      <c r="G9" t="s">
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
@@ -1148,8 +1220,8 @@
       <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="G10">
-        <v>1001</v>
+      <c r="G10" t="s">
+        <v>131</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -1186,8 +1258,8 @@
       <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11">
-        <v>1001</v>
+      <c r="G11" t="s">
+        <v>132</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
@@ -1224,8 +1296,8 @@
       <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="G12">
-        <v>1001</v>
+      <c r="G12" t="s">
+        <v>133</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -1262,8 +1334,8 @@
       <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="G13">
-        <v>1001</v>
+      <c r="G13" t="s">
+        <v>134</v>
       </c>
       <c r="H13" t="s">
         <v>74</v>
@@ -1300,8 +1372,8 @@
       <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="G14">
-        <v>1001</v>
+      <c r="G14" t="s">
+        <v>135</v>
       </c>
       <c r="H14" t="s">
         <v>79</v>
@@ -1338,8 +1410,8 @@
       <c r="F15" t="s">
         <v>78</v>
       </c>
-      <c r="G15">
-        <v>1001</v>
+      <c r="G15" t="s">
+        <v>136</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -1376,8 +1448,8 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16">
-        <v>1001</v>
+      <c r="G16" t="s">
+        <v>137</v>
       </c>
       <c r="H16" t="s">
         <v>88</v>
@@ -1415,7 +1487,7 @@
         <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="H17" t="s">
         <v>94</v>
@@ -1453,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -1491,7 +1563,7 @@
         <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
         <v>105</v>
@@ -1529,7 +1601,7 @@
         <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
         <v>108</v>
@@ -1567,7 +1639,7 @@
         <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
         <v>111</v>
@@ -1605,7 +1677,7 @@
         <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>65</v>
@@ -1643,7 +1715,7 @@
         <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
         <v>117</v>
@@ -1681,7 +1753,7 @@
         <v>121</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
         <v>122</v>
@@ -1697,6 +1769,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
